--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Timp3-Agtr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Timp3-Agtr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Timp3</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -534,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>91.20678233333335</v>
+        <v>68.88366733333334</v>
       </c>
       <c r="H2">
-        <v>273.620347</v>
+        <v>206.651002</v>
       </c>
       <c r="I2">
-        <v>0.6532435006323183</v>
+        <v>0.5393713802555014</v>
       </c>
       <c r="J2">
-        <v>0.6532435006323182</v>
+        <v>0.5393713802555014</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,22 +561,22 @@
         <v>6.007243</v>
       </c>
       <c r="O2">
-        <v>0.8176262304899502</v>
+        <v>0.7140239834365498</v>
       </c>
       <c r="P2">
-        <v>0.8176262304899502</v>
+        <v>0.7140239834365498</v>
       </c>
       <c r="Q2">
-        <v>182.6337682414801</v>
+        <v>137.9336428008318</v>
       </c>
       <c r="R2">
-        <v>1643.703914173321</v>
+        <v>1241.402785207486</v>
       </c>
       <c r="S2">
-        <v>0.5341090210140618</v>
+        <v>0.3851241014817031</v>
       </c>
       <c r="T2">
-        <v>0.5341090210140617</v>
+        <v>0.3851241014817031</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -596,46 +599,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>91.20678233333335</v>
+        <v>68.88366733333334</v>
       </c>
       <c r="H3">
-        <v>273.620347</v>
+        <v>206.651002</v>
       </c>
       <c r="I3">
-        <v>0.6532435006323183</v>
+        <v>0.5393713802555014</v>
       </c>
       <c r="J3">
-        <v>0.6532435006323182</v>
+        <v>0.5393713802555014</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.446644</v>
+        <v>0.8019933333333333</v>
       </c>
       <c r="N3">
-        <v>1.339932</v>
+        <v>2.40598</v>
       </c>
       <c r="O3">
-        <v>0.1823737695100498</v>
+        <v>0.2859760165634502</v>
       </c>
       <c r="P3">
-        <v>0.1823737695100498</v>
+        <v>0.2859760165634502</v>
       </c>
       <c r="Q3">
-        <v>40.73696208848934</v>
+        <v>55.24424197688445</v>
       </c>
       <c r="R3">
-        <v>366.6326587964041</v>
+        <v>497.19817779196</v>
       </c>
       <c r="S3">
-        <v>0.1191344796182565</v>
+        <v>0.1542472787737982</v>
       </c>
       <c r="T3">
-        <v>0.1191344796182565</v>
+        <v>0.1542472787737982</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +646,10 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -664,10 +667,10 @@
         <v>83.91591700000001</v>
       </c>
       <c r="I4">
-        <v>0.2003415607825798</v>
+        <v>0.2190255239009008</v>
       </c>
       <c r="J4">
-        <v>0.2003415607825797</v>
+        <v>0.2190255239009008</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,10 +685,10 @@
         <v>6.007243</v>
       </c>
       <c r="O4">
-        <v>0.8176262304899502</v>
+        <v>0.7140239834365498</v>
       </c>
       <c r="P4">
-        <v>0.8176262304899502</v>
+        <v>0.7140239834365498</v>
       </c>
       <c r="Q4">
         <v>56.01147833187012</v>
@@ -694,10 +697,10 @@
         <v>504.1033049868311</v>
       </c>
       <c r="S4">
-        <v>0.1638045151531339</v>
+        <v>0.1563894770499984</v>
       </c>
       <c r="T4">
-        <v>0.1638045151531339</v>
+        <v>0.1563894770499984</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,10 +708,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -726,40 +729,40 @@
         <v>83.91591700000001</v>
       </c>
       <c r="I5">
-        <v>0.2003415607825798</v>
+        <v>0.2190255239009008</v>
       </c>
       <c r="J5">
-        <v>0.2003415607825797</v>
+        <v>0.2190255239009008</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.446644</v>
+        <v>0.8019933333333333</v>
       </c>
       <c r="N5">
-        <v>1.339932</v>
+        <v>2.40598</v>
       </c>
       <c r="O5">
-        <v>0.1823737695100498</v>
+        <v>0.2859760165634502</v>
       </c>
       <c r="P5">
-        <v>0.1823737695100498</v>
+        <v>0.2859760165634502</v>
       </c>
       <c r="Q5">
-        <v>12.49351361084934</v>
+        <v>22.43333533151778</v>
       </c>
       <c r="R5">
-        <v>112.441622497644</v>
+        <v>201.90001798366</v>
       </c>
       <c r="S5">
-        <v>0.03653704562944583</v>
+        <v>0.06263604685090235</v>
       </c>
       <c r="T5">
-        <v>0.03653704562944583</v>
+        <v>0.06263604685090235</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,10 +770,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -782,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.442661</v>
+        <v>30.64425733333333</v>
       </c>
       <c r="H6">
-        <v>61.327983</v>
+        <v>91.932772</v>
       </c>
       <c r="I6">
-        <v>0.146414938585102</v>
+        <v>0.2399499912628263</v>
       </c>
       <c r="J6">
-        <v>0.146414938585102</v>
+        <v>0.2399499912628263</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +809,22 @@
         <v>6.007243</v>
       </c>
       <c r="O6">
-        <v>0.8176262304899502</v>
+        <v>0.7140239834365498</v>
       </c>
       <c r="P6">
-        <v>0.8176262304899502</v>
+        <v>0.7140239834365498</v>
       </c>
       <c r="Q6">
-        <v>40.93467739787432</v>
+        <v>61.36250011862177</v>
       </c>
       <c r="R6">
-        <v>368.412096580869</v>
+        <v>552.262501067596</v>
       </c>
       <c r="S6">
-        <v>0.1197126943227545</v>
+        <v>0.1713300485870486</v>
       </c>
       <c r="T6">
-        <v>0.1197126943227545</v>
+        <v>0.1713300485870486</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,10 +832,10 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -844,46 +847,170 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.442661</v>
+        <v>30.64425733333333</v>
       </c>
       <c r="H7">
-        <v>61.327983</v>
+        <v>91.932772</v>
       </c>
       <c r="I7">
-        <v>0.146414938585102</v>
+        <v>0.2399499912628263</v>
       </c>
       <c r="J7">
-        <v>0.146414938585102</v>
+        <v>0.2399499912628263</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.446644</v>
+        <v>0.8019933333333333</v>
       </c>
       <c r="N7">
-        <v>1.339932</v>
+        <v>2.40598</v>
       </c>
       <c r="O7">
-        <v>0.1823737695100498</v>
+        <v>0.2859760165634502</v>
       </c>
       <c r="P7">
-        <v>0.1823737695100498</v>
+        <v>0.2859760165634502</v>
       </c>
       <c r="Q7">
-        <v>9.130591879683999</v>
+        <v>24.57649008628444</v>
       </c>
       <c r="R7">
-        <v>82.175326917156</v>
+        <v>221.18841077656</v>
       </c>
       <c r="S7">
-        <v>0.02670224426234749</v>
+        <v>0.06861994267577774</v>
       </c>
       <c r="T7">
-        <v>0.02670224426234748</v>
+        <v>0.06861994267577776</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.2111196666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.633359</v>
+      </c>
+      <c r="I8">
+        <v>0.001653104580771614</v>
+      </c>
+      <c r="J8">
+        <v>0.001653104580771615</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.002414333333333</v>
+      </c>
+      <c r="N8">
+        <v>6.007243</v>
+      </c>
+      <c r="O8">
+        <v>0.7140239834365498</v>
+      </c>
+      <c r="P8">
+        <v>0.7140239834365498</v>
+      </c>
+      <c r="Q8">
+        <v>0.4227490465818889</v>
+      </c>
+      <c r="R8">
+        <v>3.804741419237</v>
+      </c>
+      <c r="S8">
+        <v>0.001180356317799756</v>
+      </c>
+      <c r="T8">
+        <v>0.001180356317799756</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.2111196666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.633359</v>
+      </c>
+      <c r="I9">
+        <v>0.001653104580771614</v>
+      </c>
+      <c r="J9">
+        <v>0.001653104580771615</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.8019933333333333</v>
+      </c>
+      <c r="N9">
+        <v>2.40598</v>
+      </c>
+      <c r="O9">
+        <v>0.2859760165634502</v>
+      </c>
+      <c r="P9">
+        <v>0.2859760165634502</v>
+      </c>
+      <c r="Q9">
+        <v>0.1693165652022222</v>
+      </c>
+      <c r="R9">
+        <v>1.52384908682</v>
+      </c>
+      <c r="S9">
+        <v>0.0004727482629718586</v>
+      </c>
+      <c r="T9">
+        <v>0.0004727482629718586</v>
       </c>
     </row>
   </sheetData>
